--- a/Uloha1/Uloha1.xlsx
+++ b/Uloha1/Uloha1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1586" documentId="8_{EF30591B-542B-4162-8517-23253BD62C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46B8D6E5-CF31-4704-91F2-18B61A98A96A}"/>
+  <xr:revisionPtr revIDLastSave="1595" documentId="8_{EF30591B-542B-4162-8517-23253BD62C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399F0607-62D3-504B-ABE6-0DA8873568FF}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="192" windowWidth="30720" windowHeight="16272" firstSheet="2" activeTab="2" xr2:uid="{5CC80E2E-FD02-4252-B8A7-3FD409C7683D}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -561,12 +561,6 @@
   </si>
   <si>
     <t>Učitel vravel že 4 Xr</t>
-  </si>
-  <si>
-    <t>delta_P</t>
-  </si>
-  <si>
-    <t>U_P</t>
   </si>
   <si>
     <t>u_PAV</t>
@@ -2433,110 +2427,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2646,9 +2536,113 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2666,7 +2660,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3298,7 +3292,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4019,7 +4013,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4245,22 +4239,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.3045072784763354</c:v>
+                  <c:v>3.2884458106806127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0606518383718297</c:v>
+                  <c:v>3.1758473610579845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7886977691132611</c:v>
+                  <c:v>3.0577179929042382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6113496122158875</c:v>
+                  <c:v>2.9795845677145509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4591319595602981</c:v>
+                  <c:v>2.9133255765716402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3228900709608276</c:v>
+                  <c:v>2.8547136026871556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4676,7 +4670,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5394,7 +5388,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8807,6 +8801,53 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>435685</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>301215</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>183442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Obrázek 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F2E854-F864-25DA-0158-46B099FAD3A5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EA696FE7-7FEF-5821-DF7F-70D6FDDF042A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17233751" y="5916706"/>
+          <a:ext cx="6675120" cy="2119818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9174,17 +9215,17 @@
       <selection sqref="A1:S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.046875" customWidth="1"/>
+    <col min="7" max="7" width="11.02734375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9217,7 +9258,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9250,7 +9291,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="47" t="s">
         <v>0</v>
@@ -9302,7 +9343,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="48" t="s">
         <v>6</v>
@@ -9364,38 +9405,38 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90" t="s">
+      <c r="E5" s="129"/>
+      <c r="F5" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="94" t="s">
+      <c r="M5" s="124" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="1"/>
@@ -9419,7 +9460,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
@@ -9433,14 +9474,14 @@
       <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="95"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -9464,7 +9505,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>27</v>
@@ -9521,8 +9562,8 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="126" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="32">
@@ -9593,8 +9634,8 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="84"/>
+    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="126"/>
       <c r="B9" s="34">
         <v>0.28599999999999998</v>
       </c>
@@ -9661,8 +9702,8 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84"/>
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="126"/>
       <c r="B10" s="34">
         <v>0.33600000000000002</v>
       </c>
@@ -9729,8 +9770,8 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84"/>
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
       <c r="B11" s="34">
         <v>0.376</v>
       </c>
@@ -9797,8 +9838,8 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84"/>
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="126"/>
       <c r="B12" s="34">
         <v>0.41599999999999998</v>
       </c>
@@ -9865,8 +9906,8 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="84"/>
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="126"/>
       <c r="B13" s="34">
         <v>0.44600000000000001</v>
       </c>
@@ -9933,8 +9974,8 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84"/>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="126"/>
       <c r="B14" s="34">
         <v>0.48599999999999999</v>
       </c>
@@ -9997,8 +10038,8 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="84"/>
+    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="126"/>
       <c r="B15" s="34">
         <v>0.51600000000000001</v>
       </c>
@@ -10061,8 +10102,8 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="84"/>
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="126"/>
       <c r="B16" s="34">
         <v>0.54500000000000004</v>
       </c>
@@ -10125,8 +10166,8 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="84"/>
+    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="126"/>
       <c r="B17" s="36">
         <v>0.57399999999999995</v>
       </c>
@@ -10189,8 +10230,8 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" s="126" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="38">
@@ -10242,10 +10283,10 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="93" t="s">
+      <c r="R18" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="S18" s="93"/>
+      <c r="S18" s="121"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -10259,8 +10300,8 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19" s="126"/>
       <c r="B19" s="34">
         <v>0.24</v>
       </c>
@@ -10331,8 +10372,8 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" s="126"/>
       <c r="B20" s="34">
         <v>0.3</v>
       </c>
@@ -10403,8 +10444,8 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="126"/>
       <c r="B21" s="34">
         <v>0.34</v>
       </c>
@@ -10467,8 +10508,8 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="126"/>
       <c r="B22" s="34">
         <v>0.4</v>
       </c>
@@ -10516,10 +10557,10 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="93" t="s">
+      <c r="R22" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="S22" s="93"/>
+      <c r="S22" s="121"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -10533,8 +10574,8 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="126"/>
       <c r="B23" s="34">
         <v>0.4</v>
       </c>
@@ -10601,8 +10642,8 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="126"/>
       <c r="B24" s="34">
         <v>0.44</v>
       </c>
@@ -10669,8 +10710,8 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="126"/>
       <c r="B25" s="34">
         <v>0.5</v>
       </c>
@@ -10733,8 +10774,8 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="126"/>
       <c r="B26" s="34">
         <v>0.54</v>
       </c>
@@ -10797,8 +10838,8 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="84"/>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="126"/>
       <c r="B27" s="40">
         <v>0.6</v>
       </c>
@@ -10861,7 +10902,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10894,7 +10935,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10927,7 +10968,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -10962,7 +11003,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -10995,7 +11036,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -11028,7 +11069,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -11061,7 +11102,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -11094,7 +11135,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11127,7 +11168,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -11160,7 +11201,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -11193,7 +11234,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -11226,7 +11267,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -11259,7 +11300,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -11292,7 +11333,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -11325,7 +11366,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -11358,7 +11399,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -11391,7 +11432,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -11424,7 +11465,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -11457,7 +11498,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -11490,7 +11531,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -11523,7 +11564,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -11556,7 +11597,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -11589,7 +11630,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -11622,7 +11663,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -11655,7 +11696,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -11688,7 +11729,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -11721,7 +11762,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -11754,7 +11795,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -11787,7 +11828,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -11820,7 +11861,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -11853,7 +11894,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -11886,7 +11927,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -11919,7 +11960,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -11952,7 +11993,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -11985,7 +12026,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -12018,7 +12059,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -12051,7 +12092,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -12084,7 +12125,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -12117,7 +12158,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -12150,7 +12191,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -12183,7 +12224,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -12216,7 +12257,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -12249,7 +12290,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -12282,7 +12323,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -12315,7 +12356,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -12348,7 +12389,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -12381,7 +12422,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -12414,7 +12455,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -12447,7 +12488,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -12480,7 +12521,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -12513,7 +12554,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -12546,7 +12587,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -12579,7 +12620,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -12612,7 +12653,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -12645,7 +12686,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -12678,7 +12719,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -12711,7 +12752,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -12744,7 +12785,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -12777,7 +12818,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -12810,7 +12851,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -12843,7 +12884,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -12876,7 +12917,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -12909,7 +12950,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -12942,7 +12983,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -12975,7 +13016,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -13008,7 +13049,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -13041,7 +13082,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -13074,7 +13115,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -13107,7 +13148,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -13140,7 +13181,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -13173,7 +13214,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -13206,7 +13247,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -13239,7 +13280,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -13272,7 +13313,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -13305,7 +13346,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -13338,7 +13379,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -13371,7 +13412,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -13404,7 +13445,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -13437,7 +13478,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -13470,7 +13511,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -13503,7 +13544,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -13536,7 +13577,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -13569,7 +13610,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -13602,7 +13643,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -13635,7 +13676,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -13668,7 +13709,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -13701,7 +13742,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -13734,7 +13775,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -13767,7 +13808,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -13800,7 +13841,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -13833,7 +13874,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -13866,7 +13907,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -13899,7 +13940,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -13932,7 +13973,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -13965,7 +14006,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -13998,7 +14039,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -14031,7 +14072,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -14064,7 +14105,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -14097,7 +14138,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -14130,7 +14171,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -14163,7 +14204,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -14196,7 +14237,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -14229,7 +14270,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -14262,7 +14303,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -14295,7 +14336,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -14328,7 +14369,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -14361,7 +14402,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -14394,7 +14435,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -14427,7 +14468,7 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -14460,7 +14501,7 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -14493,7 +14534,7 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -14526,7 +14567,7 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -14559,7 +14600,7 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -14592,7 +14633,7 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -14625,7 +14666,7 @@
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -14658,7 +14699,7 @@
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -14691,7 +14732,7 @@
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -14724,7 +14765,7 @@
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -14757,7 +14798,7 @@
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -14790,7 +14831,7 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -14823,7 +14864,7 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -14856,7 +14897,7 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -14889,7 +14930,7 @@
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -14922,7 +14963,7 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -14955,7 +14996,7 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -14988,7 +15029,7 @@
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -15021,7 +15062,7 @@
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -15054,7 +15095,7 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -15087,7 +15128,7 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -15120,7 +15161,7 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -15153,7 +15194,7 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -15186,7 +15227,7 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -15219,7 +15260,7 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -15252,7 +15293,7 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -15285,7 +15326,7 @@
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -15318,7 +15359,7 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -15351,7 +15392,7 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -15384,7 +15425,7 @@
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -15417,7 +15458,7 @@
       <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -15450,7 +15491,7 @@
       <c r="AD166" s="1"/>
       <c r="AE166" s="1"/>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -15483,7 +15524,7 @@
       <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -15516,7 +15557,7 @@
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -15549,7 +15590,7 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -15582,7 +15623,7 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -15615,7 +15656,7 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -15648,7 +15689,7 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -15681,7 +15722,7 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -15714,7 +15755,7 @@
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -15747,7 +15788,7 @@
       <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -15780,7 +15821,7 @@
       <c r="AD176" s="1"/>
       <c r="AE176" s="1"/>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -15813,7 +15854,7 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -15846,7 +15887,7 @@
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -15879,7 +15920,7 @@
       <c r="AD179" s="1"/>
       <c r="AE179" s="1"/>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -15912,7 +15953,7 @@
       <c r="AD180" s="1"/>
       <c r="AE180" s="1"/>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -15945,7 +15986,7 @@
       <c r="AD181" s="1"/>
       <c r="AE181" s="1"/>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -15978,7 +16019,7 @@
       <c r="AD182" s="1"/>
       <c r="AE182" s="1"/>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -16011,7 +16052,7 @@
       <c r="AD183" s="1"/>
       <c r="AE183" s="1"/>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -16044,7 +16085,7 @@
       <c r="AD184" s="1"/>
       <c r="AE184" s="1"/>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -16077,7 +16118,7 @@
       <c r="AD185" s="1"/>
       <c r="AE185" s="1"/>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -16110,7 +16151,7 @@
       <c r="AD186" s="1"/>
       <c r="AE186" s="1"/>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -16143,7 +16184,7 @@
       <c r="AD187" s="1"/>
       <c r="AE187" s="1"/>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -16176,7 +16217,7 @@
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -16209,7 +16250,7 @@
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -16242,7 +16283,7 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -16275,7 +16316,7 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="1"/>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -16308,7 +16349,7 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="1"/>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -16341,7 +16382,7 @@
       <c r="AD193" s="1"/>
       <c r="AE193" s="1"/>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -16374,7 +16415,7 @@
       <c r="AD194" s="1"/>
       <c r="AE194" s="1"/>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -16407,7 +16448,7 @@
       <c r="AD195" s="1"/>
       <c r="AE195" s="1"/>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -16440,7 +16481,7 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -16473,7 +16514,7 @@
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -16506,7 +16547,7 @@
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -16539,7 +16580,7 @@
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -16572,7 +16613,7 @@
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -16605,7 +16646,7 @@
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -16638,7 +16679,7 @@
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -16671,7 +16712,7 @@
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -16704,7 +16745,7 @@
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -16737,7 +16778,7 @@
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -16770,7 +16811,7 @@
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -16803,7 +16844,7 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -16836,7 +16877,7 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -16869,7 +16910,7 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -16902,7 +16943,7 @@
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -16935,7 +16976,7 @@
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -16968,7 +17009,7 @@
       <c r="AD212" s="1"/>
       <c r="AE212" s="1"/>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -17001,7 +17042,7 @@
       <c r="AD213" s="1"/>
       <c r="AE213" s="1"/>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -17034,7 +17075,7 @@
       <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -17067,7 +17108,7 @@
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -17100,7 +17141,7 @@
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -17133,7 +17174,7 @@
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -17166,7 +17207,7 @@
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -17199,7 +17240,7 @@
       <c r="AD219" s="1"/>
       <c r="AE219" s="1"/>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -17232,7 +17273,7 @@
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -17265,7 +17306,7 @@
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -17298,7 +17339,7 @@
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -17331,7 +17372,7 @@
       <c r="AD223" s="1"/>
       <c r="AE223" s="1"/>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -17364,7 +17405,7 @@
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -17397,7 +17438,7 @@
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -17430,7 +17471,7 @@
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -17463,7 +17504,7 @@
       <c r="AD227" s="1"/>
       <c r="AE227" s="1"/>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -17496,7 +17537,7 @@
       <c r="AD228" s="1"/>
       <c r="AE228" s="1"/>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -17529,7 +17570,7 @@
       <c r="AD229" s="1"/>
       <c r="AE229" s="1"/>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -17562,7 +17603,7 @@
       <c r="AD230" s="1"/>
       <c r="AE230" s="1"/>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -17595,7 +17636,7 @@
       <c r="AD231" s="1"/>
       <c r="AE231" s="1"/>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -17628,7 +17669,7 @@
       <c r="AD232" s="1"/>
       <c r="AE232" s="1"/>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -17661,7 +17702,7 @@
       <c r="AD233" s="1"/>
       <c r="AE233" s="1"/>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -17694,7 +17735,7 @@
       <c r="AD234" s="1"/>
       <c r="AE234" s="1"/>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -17727,7 +17768,7 @@
       <c r="AD235" s="1"/>
       <c r="AE235" s="1"/>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -17760,7 +17801,7 @@
       <c r="AD236" s="1"/>
       <c r="AE236" s="1"/>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -17793,7 +17834,7 @@
       <c r="AD237" s="1"/>
       <c r="AE237" s="1"/>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -17826,7 +17867,7 @@
       <c r="AD238" s="1"/>
       <c r="AE238" s="1"/>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -17859,7 +17900,7 @@
       <c r="AD239" s="1"/>
       <c r="AE239" s="1"/>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -17892,7 +17933,7 @@
       <c r="AD240" s="1"/>
       <c r="AE240" s="1"/>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -17925,7 +17966,7 @@
       <c r="AD241" s="1"/>
       <c r="AE241" s="1"/>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -17958,7 +17999,7 @@
       <c r="AD242" s="1"/>
       <c r="AE242" s="1"/>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -17991,7 +18032,7 @@
       <c r="AD243" s="1"/>
       <c r="AE243" s="1"/>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -18024,7 +18065,7 @@
       <c r="AD244" s="1"/>
       <c r="AE244" s="1"/>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -18057,7 +18098,7 @@
       <c r="AD245" s="1"/>
       <c r="AE245" s="1"/>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -18090,7 +18131,7 @@
       <c r="AD246" s="1"/>
       <c r="AE246" s="1"/>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -18123,7 +18164,7 @@
       <c r="AD247" s="1"/>
       <c r="AE247" s="1"/>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -18156,7 +18197,7 @@
       <c r="AD248" s="1"/>
       <c r="AE248" s="1"/>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -18189,7 +18230,7 @@
       <c r="AD249" s="1"/>
       <c r="AE249" s="1"/>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -18222,7 +18263,7 @@
       <c r="AD250" s="1"/>
       <c r="AE250" s="1"/>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -18255,7 +18296,7 @@
       <c r="AD251" s="1"/>
       <c r="AE251" s="1"/>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -18288,7 +18329,7 @@
       <c r="AD252" s="1"/>
       <c r="AE252" s="1"/>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -18321,7 +18362,7 @@
       <c r="AD253" s="1"/>
       <c r="AE253" s="1"/>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -18354,7 +18395,7 @@
       <c r="AD254" s="1"/>
       <c r="AE254" s="1"/>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -18387,7 +18428,7 @@
       <c r="AD255" s="1"/>
       <c r="AE255" s="1"/>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -18420,7 +18461,7 @@
       <c r="AD256" s="1"/>
       <c r="AE256" s="1"/>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -18453,7 +18494,7 @@
       <c r="AD257" s="1"/>
       <c r="AE257" s="1"/>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -18486,7 +18527,7 @@
       <c r="AD258" s="1"/>
       <c r="AE258" s="1"/>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -18519,7 +18560,7 @@
       <c r="AD259" s="1"/>
       <c r="AE259" s="1"/>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -18552,7 +18593,7 @@
       <c r="AD260" s="1"/>
       <c r="AE260" s="1"/>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -18585,7 +18626,7 @@
       <c r="AD261" s="1"/>
       <c r="AE261" s="1"/>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -18618,7 +18659,7 @@
       <c r="AD262" s="1"/>
       <c r="AE262" s="1"/>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -18651,7 +18692,7 @@
       <c r="AD263" s="1"/>
       <c r="AE263" s="1"/>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -18684,7 +18725,7 @@
       <c r="AD264" s="1"/>
       <c r="AE264" s="1"/>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -18717,7 +18758,7 @@
       <c r="AD265" s="1"/>
       <c r="AE265" s="1"/>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -18750,7 +18791,7 @@
       <c r="AD266" s="1"/>
       <c r="AE266" s="1"/>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -18783,7 +18824,7 @@
       <c r="AD267" s="1"/>
       <c r="AE267" s="1"/>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -18816,7 +18857,7 @@
       <c r="AD268" s="1"/>
       <c r="AE268" s="1"/>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -18849,7 +18890,7 @@
       <c r="AD269" s="1"/>
       <c r="AE269" s="1"/>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -18882,7 +18923,7 @@
       <c r="AD270" s="1"/>
       <c r="AE270" s="1"/>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -18915,7 +18956,7 @@
       <c r="AD271" s="1"/>
       <c r="AE271" s="1"/>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -18948,7 +18989,7 @@
       <c r="AD272" s="1"/>
       <c r="AE272" s="1"/>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -18981,7 +19022,7 @@
       <c r="AD273" s="1"/>
       <c r="AE273" s="1"/>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -19014,7 +19055,7 @@
       <c r="AD274" s="1"/>
       <c r="AE274" s="1"/>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -19047,7 +19088,7 @@
       <c r="AD275" s="1"/>
       <c r="AE275" s="1"/>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -19080,7 +19121,7 @@
       <c r="AD276" s="1"/>
       <c r="AE276" s="1"/>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -19113,7 +19154,7 @@
       <c r="AD277" s="1"/>
       <c r="AE277" s="1"/>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -19146,7 +19187,7 @@
       <c r="AD278" s="1"/>
       <c r="AE278" s="1"/>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -19179,7 +19220,7 @@
       <c r="AD279" s="1"/>
       <c r="AE279" s="1"/>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -19212,7 +19253,7 @@
       <c r="AD280" s="1"/>
       <c r="AE280" s="1"/>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -19245,7 +19286,7 @@
       <c r="AD281" s="1"/>
       <c r="AE281" s="1"/>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -19278,7 +19319,7 @@
       <c r="AD282" s="1"/>
       <c r="AE282" s="1"/>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -19311,7 +19352,7 @@
       <c r="AD283" s="1"/>
       <c r="AE283" s="1"/>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -19344,7 +19385,7 @@
       <c r="AD284" s="1"/>
       <c r="AE284" s="1"/>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -19377,7 +19418,7 @@
       <c r="AD285" s="1"/>
       <c r="AE285" s="1"/>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -19410,7 +19451,7 @@
       <c r="AD286" s="1"/>
       <c r="AE286" s="1"/>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -19443,7 +19484,7 @@
       <c r="AD287" s="1"/>
       <c r="AE287" s="1"/>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -19476,7 +19517,7 @@
       <c r="AD288" s="1"/>
       <c r="AE288" s="1"/>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -19509,7 +19550,7 @@
       <c r="AD289" s="1"/>
       <c r="AE289" s="1"/>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -19542,7 +19583,7 @@
       <c r="AD290" s="1"/>
       <c r="AE290" s="1"/>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -19575,7 +19616,7 @@
       <c r="AD291" s="1"/>
       <c r="AE291" s="1"/>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -19608,7 +19649,7 @@
       <c r="AD292" s="1"/>
       <c r="AE292" s="1"/>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -19641,7 +19682,7 @@
       <c r="AD293" s="1"/>
       <c r="AE293" s="1"/>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -19674,7 +19715,7 @@
       <c r="AD294" s="1"/>
       <c r="AE294" s="1"/>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -19707,7 +19748,7 @@
       <c r="AD295" s="1"/>
       <c r="AE295" s="1"/>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -19740,7 +19781,7 @@
       <c r="AD296" s="1"/>
       <c r="AE296" s="1"/>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -19773,7 +19814,7 @@
       <c r="AD297" s="1"/>
       <c r="AE297" s="1"/>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -19806,7 +19847,7 @@
       <c r="AD298" s="1"/>
       <c r="AE298" s="1"/>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -19839,7 +19880,7 @@
       <c r="AD299" s="1"/>
       <c r="AE299" s="1"/>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -19872,7 +19913,7 @@
       <c r="AD300" s="1"/>
       <c r="AE300" s="1"/>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -19905,7 +19946,7 @@
       <c r="AD301" s="1"/>
       <c r="AE301" s="1"/>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -19938,7 +19979,7 @@
       <c r="AD302" s="1"/>
       <c r="AE302" s="1"/>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -19971,7 +20012,7 @@
       <c r="AD303" s="1"/>
       <c r="AE303" s="1"/>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -20004,7 +20045,7 @@
       <c r="AD304" s="1"/>
       <c r="AE304" s="1"/>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -20037,7 +20078,7 @@
       <c r="AD305" s="1"/>
       <c r="AE305" s="1"/>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -20070,7 +20111,7 @@
       <c r="AD306" s="1"/>
       <c r="AE306" s="1"/>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -20103,7 +20144,7 @@
       <c r="AD307" s="1"/>
       <c r="AE307" s="1"/>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -20136,7 +20177,7 @@
       <c r="AD308" s="1"/>
       <c r="AE308" s="1"/>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -20169,7 +20210,7 @@
       <c r="AD309" s="1"/>
       <c r="AE309" s="1"/>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -20202,7 +20243,7 @@
       <c r="AD310" s="1"/>
       <c r="AE310" s="1"/>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -20235,7 +20276,7 @@
       <c r="AD311" s="1"/>
       <c r="AE311" s="1"/>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -20268,7 +20309,7 @@
       <c r="AD312" s="1"/>
       <c r="AE312" s="1"/>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -20301,7 +20342,7 @@
       <c r="AD313" s="1"/>
       <c r="AE313" s="1"/>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -20334,7 +20375,7 @@
       <c r="AD314" s="1"/>
       <c r="AE314" s="1"/>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -20367,7 +20408,7 @@
       <c r="AD315" s="1"/>
       <c r="AE315" s="1"/>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -20400,7 +20441,7 @@
       <c r="AD316" s="1"/>
       <c r="AE316" s="1"/>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -20433,7 +20474,7 @@
       <c r="AD317" s="1"/>
       <c r="AE317" s="1"/>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -20466,7 +20507,7 @@
       <c r="AD318" s="1"/>
       <c r="AE318" s="1"/>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -20499,7 +20540,7 @@
       <c r="AD319" s="1"/>
       <c r="AE319" s="1"/>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -20532,7 +20573,7 @@
       <c r="AD320" s="1"/>
       <c r="AE320" s="1"/>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -20565,7 +20606,7 @@
       <c r="AD321" s="1"/>
       <c r="AE321" s="1"/>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -20598,7 +20639,7 @@
       <c r="AD322" s="1"/>
       <c r="AE322" s="1"/>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -20631,7 +20672,7 @@
       <c r="AD323" s="1"/>
       <c r="AE323" s="1"/>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -20664,7 +20705,7 @@
       <c r="AD324" s="1"/>
       <c r="AE324" s="1"/>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -20697,7 +20738,7 @@
       <c r="AD325" s="1"/>
       <c r="AE325" s="1"/>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -20730,7 +20771,7 @@
       <c r="AD326" s="1"/>
       <c r="AE326" s="1"/>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -20763,7 +20804,7 @@
       <c r="AD327" s="1"/>
       <c r="AE327" s="1"/>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -20796,7 +20837,7 @@
       <c r="AD328" s="1"/>
       <c r="AE328" s="1"/>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -20829,7 +20870,7 @@
       <c r="AD329" s="1"/>
       <c r="AE329" s="1"/>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -20862,7 +20903,7 @@
       <c r="AD330" s="1"/>
       <c r="AE330" s="1"/>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -20895,7 +20936,7 @@
       <c r="AD331" s="1"/>
       <c r="AE331" s="1"/>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -20928,7 +20969,7 @@
       <c r="AD332" s="1"/>
       <c r="AE332" s="1"/>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -20961,7 +21002,7 @@
       <c r="AD333" s="1"/>
       <c r="AE333" s="1"/>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -20994,7 +21035,7 @@
       <c r="AD334" s="1"/>
       <c r="AE334" s="1"/>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -21027,7 +21068,7 @@
       <c r="AD335" s="1"/>
       <c r="AE335" s="1"/>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -21060,7 +21101,7 @@
       <c r="AD336" s="1"/>
       <c r="AE336" s="1"/>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -21093,7 +21134,7 @@
       <c r="AD337" s="1"/>
       <c r="AE337" s="1"/>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -21126,7 +21167,7 @@
       <c r="AD338" s="1"/>
       <c r="AE338" s="1"/>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -21159,7 +21200,7 @@
       <c r="AD339" s="1"/>
       <c r="AE339" s="1"/>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -21192,7 +21233,7 @@
       <c r="AD340" s="1"/>
       <c r="AE340" s="1"/>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -21225,7 +21266,7 @@
       <c r="AD341" s="1"/>
       <c r="AE341" s="1"/>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -21258,7 +21299,7 @@
       <c r="AD342" s="1"/>
       <c r="AE342" s="1"/>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -21291,7 +21332,7 @@
       <c r="AD343" s="1"/>
       <c r="AE343" s="1"/>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -21324,7 +21365,7 @@
       <c r="AD344" s="1"/>
       <c r="AE344" s="1"/>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -21357,7 +21398,7 @@
       <c r="AD345" s="1"/>
       <c r="AE345" s="1"/>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -21390,7 +21431,7 @@
       <c r="AD346" s="1"/>
       <c r="AE346" s="1"/>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -21423,7 +21464,7 @@
       <c r="AD347" s="1"/>
       <c r="AE347" s="1"/>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -21456,7 +21497,7 @@
       <c r="AD348" s="1"/>
       <c r="AE348" s="1"/>
     </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -21489,7 +21530,7 @@
       <c r="AD349" s="1"/>
       <c r="AE349" s="1"/>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -21522,7 +21563,7 @@
       <c r="AD350" s="1"/>
       <c r="AE350" s="1"/>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -21555,7 +21596,7 @@
       <c r="AD351" s="1"/>
       <c r="AE351" s="1"/>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -21588,7 +21629,7 @@
       <c r="AD352" s="1"/>
       <c r="AE352" s="1"/>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -21621,7 +21662,7 @@
       <c r="AD353" s="1"/>
       <c r="AE353" s="1"/>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -21654,7 +21695,7 @@
       <c r="AD354" s="1"/>
       <c r="AE354" s="1"/>
     </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -21687,7 +21728,7 @@
       <c r="AD355" s="1"/>
       <c r="AE355" s="1"/>
     </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -21720,7 +21761,7 @@
       <c r="AD356" s="1"/>
       <c r="AE356" s="1"/>
     </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -21753,7 +21794,7 @@
       <c r="AD357" s="1"/>
       <c r="AE357" s="1"/>
     </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -21786,7 +21827,7 @@
       <c r="AD358" s="1"/>
       <c r="AE358" s="1"/>
     </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -21819,7 +21860,7 @@
       <c r="AD359" s="1"/>
       <c r="AE359" s="1"/>
     </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -21852,7 +21893,7 @@
       <c r="AD360" s="1"/>
       <c r="AE360" s="1"/>
     </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -21885,7 +21926,7 @@
       <c r="AD361" s="1"/>
       <c r="AE361" s="1"/>
     </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -21918,7 +21959,7 @@
       <c r="AD362" s="1"/>
       <c r="AE362" s="1"/>
     </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -21951,7 +21992,7 @@
       <c r="AD363" s="1"/>
       <c r="AE363" s="1"/>
     </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -21984,7 +22025,7 @@
       <c r="AD364" s="1"/>
       <c r="AE364" s="1"/>
     </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -22017,7 +22058,7 @@
       <c r="AD365" s="1"/>
       <c r="AE365" s="1"/>
     </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -22050,7 +22091,7 @@
       <c r="AD366" s="1"/>
       <c r="AE366" s="1"/>
     </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -22083,7 +22124,7 @@
       <c r="AD367" s="1"/>
       <c r="AE367" s="1"/>
     </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -22116,7 +22157,7 @@
       <c r="AD368" s="1"/>
       <c r="AE368" s="1"/>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -22149,7 +22190,7 @@
       <c r="AD369" s="1"/>
       <c r="AE369" s="1"/>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -22182,7 +22223,7 @@
       <c r="AD370" s="1"/>
       <c r="AE370" s="1"/>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -22215,7 +22256,7 @@
       <c r="AD371" s="1"/>
       <c r="AE371" s="1"/>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -22248,7 +22289,7 @@
       <c r="AD372" s="1"/>
       <c r="AE372" s="1"/>
     </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -22281,7 +22322,7 @@
       <c r="AD373" s="1"/>
       <c r="AE373" s="1"/>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -22314,7 +22355,7 @@
       <c r="AD374" s="1"/>
       <c r="AE374" s="1"/>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -22347,7 +22388,7 @@
       <c r="AD375" s="1"/>
       <c r="AE375" s="1"/>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -22380,7 +22421,7 @@
       <c r="AD376" s="1"/>
       <c r="AE376" s="1"/>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -22413,7 +22454,7 @@
       <c r="AD377" s="1"/>
       <c r="AE377" s="1"/>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -22446,7 +22487,7 @@
       <c r="AD378" s="1"/>
       <c r="AE378" s="1"/>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -22479,7 +22520,7 @@
       <c r="AD379" s="1"/>
       <c r="AE379" s="1"/>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -22512,7 +22553,7 @@
       <c r="AD380" s="1"/>
       <c r="AE380" s="1"/>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -22545,7 +22586,7 @@
       <c r="AD381" s="1"/>
       <c r="AE381" s="1"/>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -22578,7 +22619,7 @@
       <c r="AD382" s="1"/>
       <c r="AE382" s="1"/>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -22611,7 +22652,7 @@
       <c r="AD383" s="1"/>
       <c r="AE383" s="1"/>
     </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -22644,7 +22685,7 @@
       <c r="AD384" s="1"/>
       <c r="AE384" s="1"/>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -22677,7 +22718,7 @@
       <c r="AD385" s="1"/>
       <c r="AE385" s="1"/>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -22710,7 +22751,7 @@
       <c r="AD386" s="1"/>
       <c r="AE386" s="1"/>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -22743,7 +22784,7 @@
       <c r="AD387" s="1"/>
       <c r="AE387" s="1"/>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -22776,7 +22817,7 @@
       <c r="AD388" s="1"/>
       <c r="AE388" s="1"/>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -22809,7 +22850,7 @@
       <c r="AD389" s="1"/>
       <c r="AE389" s="1"/>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -22842,7 +22883,7 @@
       <c r="AD390" s="1"/>
       <c r="AE390" s="1"/>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -22875,7 +22916,7 @@
       <c r="AD391" s="1"/>
       <c r="AE391" s="1"/>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -22908,7 +22949,7 @@
       <c r="AD392" s="1"/>
       <c r="AE392" s="1"/>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -22941,7 +22982,7 @@
       <c r="AD393" s="1"/>
       <c r="AE393" s="1"/>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -22974,7 +23015,7 @@
       <c r="AD394" s="1"/>
       <c r="AE394" s="1"/>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -23007,7 +23048,7 @@
       <c r="AD395" s="1"/>
       <c r="AE395" s="1"/>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -23040,7 +23081,7 @@
       <c r="AD396" s="1"/>
       <c r="AE396" s="1"/>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -23073,7 +23114,7 @@
       <c r="AD397" s="1"/>
       <c r="AE397" s="1"/>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -23106,7 +23147,7 @@
       <c r="AD398" s="1"/>
       <c r="AE398" s="1"/>
     </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -23139,7 +23180,7 @@
       <c r="AD399" s="1"/>
       <c r="AE399" s="1"/>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -23172,7 +23213,7 @@
       <c r="AD400" s="1"/>
       <c r="AE400" s="1"/>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -23205,7 +23246,7 @@
       <c r="AD401" s="1"/>
       <c r="AE401" s="1"/>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -23238,7 +23279,7 @@
       <c r="AD402" s="1"/>
       <c r="AE402" s="1"/>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -23271,7 +23312,7 @@
       <c r="AD403" s="1"/>
       <c r="AE403" s="1"/>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -23304,7 +23345,7 @@
       <c r="AD404" s="1"/>
       <c r="AE404" s="1"/>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -23337,7 +23378,7 @@
       <c r="AD405" s="1"/>
       <c r="AE405" s="1"/>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -23370,7 +23411,7 @@
       <c r="AD406" s="1"/>
       <c r="AE406" s="1"/>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -23403,7 +23444,7 @@
       <c r="AD407" s="1"/>
       <c r="AE407" s="1"/>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -23436,7 +23477,7 @@
       <c r="AD408" s="1"/>
       <c r="AE408" s="1"/>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -23469,7 +23510,7 @@
       <c r="AD409" s="1"/>
       <c r="AE409" s="1"/>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -23502,7 +23543,7 @@
       <c r="AD410" s="1"/>
       <c r="AE410" s="1"/>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -23535,7 +23576,7 @@
       <c r="AD411" s="1"/>
       <c r="AE411" s="1"/>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -23568,7 +23609,7 @@
       <c r="AD412" s="1"/>
       <c r="AE412" s="1"/>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -23601,7 +23642,7 @@
       <c r="AD413" s="1"/>
       <c r="AE413" s="1"/>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -23634,7 +23675,7 @@
       <c r="AD414" s="1"/>
       <c r="AE414" s="1"/>
     </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -23667,7 +23708,7 @@
       <c r="AD415" s="1"/>
       <c r="AE415" s="1"/>
     </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -23700,7 +23741,7 @@
       <c r="AD416" s="1"/>
       <c r="AE416" s="1"/>
     </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -23733,7 +23774,7 @@
       <c r="AD417" s="1"/>
       <c r="AE417" s="1"/>
     </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -23766,7 +23807,7 @@
       <c r="AD418" s="1"/>
       <c r="AE418" s="1"/>
     </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -23799,7 +23840,7 @@
       <c r="AD419" s="1"/>
       <c r="AE419" s="1"/>
     </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -23832,7 +23873,7 @@
       <c r="AD420" s="1"/>
       <c r="AE420" s="1"/>
     </row>
-    <row r="421" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -23865,7 +23906,7 @@
       <c r="AD421" s="1"/>
       <c r="AE421" s="1"/>
     </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -23898,7 +23939,7 @@
       <c r="AD422" s="1"/>
       <c r="AE422" s="1"/>
     </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -23931,7 +23972,7 @@
       <c r="AD423" s="1"/>
       <c r="AE423" s="1"/>
     </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -23964,7 +24005,7 @@
       <c r="AD424" s="1"/>
       <c r="AE424" s="1"/>
     </row>
-    <row r="425" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -23997,7 +24038,7 @@
       <c r="AD425" s="1"/>
       <c r="AE425" s="1"/>
     </row>
-    <row r="426" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -24030,7 +24071,7 @@
       <c r="AD426" s="1"/>
       <c r="AE426" s="1"/>
     </row>
-    <row r="427" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -24063,7 +24104,7 @@
       <c r="AD427" s="1"/>
       <c r="AE427" s="1"/>
     </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -24096,7 +24137,7 @@
       <c r="AD428" s="1"/>
       <c r="AE428" s="1"/>
     </row>
-    <row r="429" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -24129,7 +24170,7 @@
       <c r="AD429" s="1"/>
       <c r="AE429" s="1"/>
     </row>
-    <row r="430" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -24162,7 +24203,7 @@
       <c r="AD430" s="1"/>
       <c r="AE430" s="1"/>
     </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -24195,7 +24236,7 @@
       <c r="AD431" s="1"/>
       <c r="AE431" s="1"/>
     </row>
-    <row r="432" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -24228,7 +24269,7 @@
       <c r="AD432" s="1"/>
       <c r="AE432" s="1"/>
     </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -24261,7 +24302,7 @@
       <c r="AD433" s="1"/>
       <c r="AE433" s="1"/>
     </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -24294,7 +24335,7 @@
       <c r="AD434" s="1"/>
       <c r="AE434" s="1"/>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -24327,7 +24368,7 @@
       <c r="AD435" s="1"/>
       <c r="AE435" s="1"/>
     </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -24360,7 +24401,7 @@
       <c r="AD436" s="1"/>
       <c r="AE436" s="1"/>
     </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -24393,7 +24434,7 @@
       <c r="AD437" s="1"/>
       <c r="AE437" s="1"/>
     </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -24426,7 +24467,7 @@
       <c r="AD438" s="1"/>
       <c r="AE438" s="1"/>
     </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -24459,7 +24500,7 @@
       <c r="AD439" s="1"/>
       <c r="AE439" s="1"/>
     </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -24492,7 +24533,7 @@
       <c r="AD440" s="1"/>
       <c r="AE440" s="1"/>
     </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -24525,7 +24566,7 @@
       <c r="AD441" s="1"/>
       <c r="AE441" s="1"/>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -24558,7 +24599,7 @@
       <c r="AD442" s="1"/>
       <c r="AE442" s="1"/>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -24591,7 +24632,7 @@
       <c r="AD443" s="1"/>
       <c r="AE443" s="1"/>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -24624,7 +24665,7 @@
       <c r="AD444" s="1"/>
       <c r="AE444" s="1"/>
     </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -24657,7 +24698,7 @@
       <c r="AD445" s="1"/>
       <c r="AE445" s="1"/>
     </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -24690,7 +24731,7 @@
       <c r="AD446" s="1"/>
       <c r="AE446" s="1"/>
     </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -24723,7 +24764,7 @@
       <c r="AD447" s="1"/>
       <c r="AE447" s="1"/>
     </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -24756,7 +24797,7 @@
       <c r="AD448" s="1"/>
       <c r="AE448" s="1"/>
     </row>
-    <row r="449" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -24789,7 +24830,7 @@
       <c r="AD449" s="1"/>
       <c r="AE449" s="1"/>
     </row>
-    <row r="450" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -24822,7 +24863,7 @@
       <c r="AD450" s="1"/>
       <c r="AE450" s="1"/>
     </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -24855,7 +24896,7 @@
       <c r="AD451" s="1"/>
       <c r="AE451" s="1"/>
     </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -24888,7 +24929,7 @@
       <c r="AD452" s="1"/>
       <c r="AE452" s="1"/>
     </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -24921,7 +24962,7 @@
       <c r="AD453" s="1"/>
       <c r="AE453" s="1"/>
     </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -24954,7 +24995,7 @@
       <c r="AD454" s="1"/>
       <c r="AE454" s="1"/>
     </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -24987,7 +25028,7 @@
       <c r="AD455" s="1"/>
       <c r="AE455" s="1"/>
     </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -25022,12 +25063,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
@@ -25036,6 +25071,12 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25048,7 +25089,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25058,58 +25099,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F933F6-9AD8-8141-85FC-780248630359}">
   <dimension ref="B1:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AY22" sqref="AY22"/>
+    <sheetView tabSelected="1" topLeftCell="W15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.8359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.609375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.8359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.56640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.55078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:38" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:38" ht="18" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="H3" s="84" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="120" t="s">
-        <v>76</v>
+      <c r="J3" s="84" t="s">
+        <v>74</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>19</v>
@@ -25120,62 +25161,62 @@
       <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="120" t="s">
+      <c r="N3" s="84" t="s">
         <v>22</v>
       </c>
       <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="120">
+        <v>9100000</v>
+      </c>
+      <c r="T3" t="s">
         <v>51</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="156">
-        <v>9100000</v>
-      </c>
-      <c r="T3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" s="127" t="s">
+      <c r="AA3" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="123" t="s">
+      <c r="AD3" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="AC3" s="123" t="s">
+      <c r="AE3" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH3" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="AD3" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE3" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF3" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG3" s="123" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH3" s="128" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" s="123" t="s">
+      <c r="AI3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="AJ3" s="123" t="s">
+      <c r="AJ3" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="AK3" s="123" t="s">
+      <c r="AK3" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="AL3" s="129" t="s">
+      <c r="AL3" s="93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
@@ -25216,13 +25257,13 @@
         <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="156">
+        <v>53</v>
+      </c>
+      <c r="S4" s="120">
         <v>8400000</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
         <v>46</v>
@@ -25230,44 +25271,44 @@
       <c r="W4">
         <v>4000</v>
       </c>
-      <c r="AA4" s="124" t="s">
+      <c r="AA4" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="125" t="s">
+      <c r="AB4" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="125" t="s">
+      <c r="AC4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="126" t="s">
+      <c r="AD4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="131" t="s">
+      <c r="AE4" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="AF4" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG4" s="125" t="s">
+      <c r="AF4" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="125" t="s">
+      <c r="AH4" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AI4" s="125" t="s">
+      <c r="AI4" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="125" t="s">
+      <c r="AJ4" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AK4" s="125" t="s">
+      <c r="AK4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="AL4" s="126" t="s">
+      <c r="AL4" s="90" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C5" s="32">
         <v>0.22600000000000001</v>
       </c>
@@ -25284,15 +25325,15 @@
         <f t="array" ref="G5:G14">C5:C14*E5:E14</f>
         <v>0.22600000000000001</v>
       </c>
-      <c r="H5" s="121" cm="1">
+      <c r="H5" s="85" cm="1">
         <f t="array" ref="H5:H7">POWER(E5:E7,2)/S3</f>
         <v>1.0989010989010989E-7</v>
       </c>
-      <c r="I5" s="121" cm="1">
+      <c r="I5" s="85" cm="1">
         <f t="array" ref="I5:I14">_xlfn.ANCHORARRAY(G5)-H5:H14</f>
         <v>0.22599989010989011</v>
       </c>
-      <c r="J5" s="121" cm="1">
+      <c r="J5" s="85" cm="1">
         <f t="array" ref="J5:J14">(H5:H14/_xlfn.ANCHORARRAY(I5))*100</f>
         <v>4.8623966072141431E-5</v>
       </c>
@@ -25308,7 +25349,7 @@
         <f t="array" ref="M5:M14">P5:P14*2</f>
         <v>3.3772413066110746E-3</v>
       </c>
-      <c r="N5" s="121" cm="1">
+      <c r="N5" s="85" cm="1">
         <f t="array" ref="N5:N14">(_xlfn.ANCHORARRAY(M5)/_xlfn.ANCHORARRAY(I5))*100</f>
         <v>1.4943552870618326</v>
       </c>
@@ -25317,70 +25358,70 @@
         <v>1.6886206533055373E-3</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="156">
+        <v>54</v>
+      </c>
+      <c r="S5" s="120">
         <v>1.5</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W5">
         <v>2</v>
       </c>
-      <c r="AA5" s="122" cm="1">
+      <c r="AA5" s="86" cm="1">
         <f t="array" ref="AA5:AA14">C5:C14</f>
         <v>0.22600000000000001</v>
       </c>
-      <c r="AB5" s="123" cm="1">
+      <c r="AB5" s="87" cm="1">
         <f t="array" ref="AB5:AB14">D5:D14</f>
         <v>0.4</v>
       </c>
-      <c r="AC5" s="123" cm="1">
+      <c r="AC5" s="87" cm="1">
         <f t="array" ref="AC5:AC14">E5:E14</f>
         <v>1</v>
       </c>
-      <c r="AD5" s="132" cm="1">
+      <c r="AD5" s="96" cm="1">
         <f t="array" ref="AD5:AD14">F5:F14</f>
         <v>4</v>
       </c>
-      <c r="AE5" s="134" cm="1">
+      <c r="AE5" s="98" cm="1">
         <f t="array" ref="AE5:AE14">G5:G14</f>
         <v>0.22600000000000001</v>
       </c>
-      <c r="AF5" s="138" cm="1">
+      <c r="AF5" s="102" cm="1">
         <f t="array" ref="AF5:AF14">H5:H14*1000000</f>
         <v>0.10989010989010989</v>
       </c>
-      <c r="AG5" s="138" cm="1">
+      <c r="AG5" s="102" cm="1">
         <f t="array" ref="AG5:AG14">I5:I14</f>
         <v>0.22599989010989011</v>
       </c>
-      <c r="AH5" s="145" cm="1">
+      <c r="AH5" s="109" cm="1">
         <f t="array" ref="AH5:AH14">J5:J14</f>
         <v>4.8623966072141431E-5</v>
       </c>
-      <c r="AI5" s="138" cm="1">
+      <c r="AI5" s="102" cm="1">
         <f t="array" ref="AI5:AI14">K5:K14*1000</f>
         <v>1.4202816622064793</v>
       </c>
-      <c r="AJ5" s="138" cm="1">
+      <c r="AJ5" s="102" cm="1">
         <f t="array" ref="AJ5:AJ14">L5:L14*1000</f>
         <v>4.0414518843273806</v>
       </c>
-      <c r="AK5" s="151" cm="1">
+      <c r="AK5" s="115" cm="1">
         <f t="array" ref="AK5:AK14">M5:M14*1000</f>
         <v>3.3772413066110745</v>
       </c>
-      <c r="AL5" s="152" cm="1">
+      <c r="AL5" s="116" cm="1">
         <f t="array" ref="AL5:AL14">N5:N14</f>
         <v>1.4943552870618326</v>
       </c>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C6" s="34">
         <v>0.28599999999999998</v>
       </c>
@@ -25396,7 +25437,7 @@
       <c r="G6" s="1">
         <v>0.57199999999999995</v>
       </c>
-      <c r="H6" s="121">
+      <c r="H6" s="85">
         <v>4.3956043956043957E-7</v>
       </c>
       <c r="I6" s="1">
@@ -25421,16 +25462,16 @@
         <v>4.0510487446385841E-3</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" s="156">
+        <v>56</v>
+      </c>
+      <c r="S6" s="120">
         <v>0.06</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W6">
         <v>2</v>
@@ -25447,32 +25488,32 @@
       <c r="AD6" s="4">
         <v>4</v>
       </c>
-      <c r="AE6" s="135">
+      <c r="AE6" s="99">
         <v>0.57199999999999995</v>
       </c>
-      <c r="AF6" s="139">
+      <c r="AF6" s="103">
         <v>0.43956043956043955</v>
       </c>
-      <c r="AG6" s="139">
+      <c r="AG6" s="103">
         <v>0.57199956043956035</v>
       </c>
-      <c r="AH6" s="146">
+      <c r="AH6" s="110">
         <v>7.6846289745861651E-5</v>
       </c>
-      <c r="AI6" s="139">
+      <c r="AI6" s="103">
         <v>1.7666918237202549</v>
       </c>
-      <c r="AJ6" s="139">
+      <c r="AJ6" s="103">
         <v>6.9282032302755088</v>
       </c>
-      <c r="AK6" s="143">
+      <c r="AK6" s="107">
         <v>8.1020974892771687</v>
       </c>
-      <c r="AL6" s="153">
+      <c r="AL6" s="117">
         <v>1.4164516985032312</v>
       </c>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C7" s="34">
         <v>0.33600000000000002</v>
       </c>
@@ -25488,7 +25529,7 @@
       <c r="G7" s="1">
         <v>1.008</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="85">
         <v>9.8901098901098912E-7</v>
       </c>
       <c r="I7" s="1">
@@ -25513,16 +25554,16 @@
         <v>6.9925964646163422E-3</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7" s="156">
+        <v>58</v>
+      </c>
+      <c r="S7" s="120">
         <v>0.5</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W7">
         <v>5</v>
@@ -25539,32 +25580,32 @@
       <c r="AD7" s="4">
         <v>4</v>
       </c>
-      <c r="AE7" s="135">
+      <c r="AE7" s="99">
         <v>1.008</v>
       </c>
-      <c r="AF7" s="139">
+      <c r="AF7" s="103">
         <v>0.98901098901098916</v>
       </c>
-      <c r="AG7" s="139">
+      <c r="AG7" s="103">
         <v>1.0079990109890109</v>
       </c>
-      <c r="AH7" s="146">
+      <c r="AH7" s="110">
         <v>9.8116265812662714E-5</v>
       </c>
-      <c r="AI7" s="139">
+      <c r="AI7" s="103">
         <v>2.055366958315068</v>
       </c>
-      <c r="AJ7" s="139">
+      <c r="AJ7" s="103">
         <v>9.8149545762236379</v>
       </c>
-      <c r="AK7" s="143">
+      <c r="AK7" s="107">
         <v>13.985192929232685</v>
       </c>
-      <c r="AL7" s="153">
+      <c r="AL7" s="117">
         <v>1.3874212947402533</v>
       </c>
     </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C8" s="34">
         <v>0.376</v>
       </c>
@@ -25580,7 +25621,7 @@
       <c r="G8" s="1">
         <v>1.504</v>
       </c>
-      <c r="H8" s="121" cm="1">
+      <c r="H8" s="85" cm="1">
         <f t="array" ref="H8:H14">POWER(E8:E14,2)/S4</f>
         <v>1.9047619047619047E-6</v>
       </c>
@@ -25607,9 +25648,9 @@
         <v>1.2610921907836997E-2</v>
       </c>
       <c r="R8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" s="156">
+        <v>60</v>
+      </c>
+      <c r="S8" s="120">
         <f>(W5/W4)*100</f>
         <v>0.05</v>
       </c>
@@ -25628,37 +25669,37 @@
       <c r="AD8" s="4">
         <v>40</v>
       </c>
-      <c r="AE8" s="135">
+      <c r="AE8" s="99">
         <v>1.504</v>
       </c>
-      <c r="AF8" s="139">
+      <c r="AF8" s="103">
         <v>1.9047619047619047</v>
       </c>
-      <c r="AG8" s="139">
+      <c r="AG8" s="103">
         <v>1.5039980952380951</v>
       </c>
-      <c r="AH8" s="146">
+      <c r="AH8" s="110">
         <v>1.2664656363546559E-4</v>
       </c>
-      <c r="AI8" s="139">
+      <c r="AI8" s="103">
         <v>2.2863070659909179</v>
       </c>
-      <c r="AJ8" s="139">
+      <c r="AJ8" s="103">
         <v>23.094010767585033</v>
       </c>
-      <c r="AK8" s="143">
+      <c r="AK8" s="107">
         <v>25.221843815673996</v>
       </c>
-      <c r="AL8" s="153">
+      <c r="AL8" s="117">
         <v>1.6769864200979039</v>
       </c>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C9" s="34">
         <v>0.41599999999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -25669,7 +25710,7 @@
       <c r="G9" s="1">
         <v>2.08</v>
       </c>
-      <c r="H9" s="121">
+      <c r="H9" s="85">
         <v>2.9761904761904763E-6</v>
       </c>
       <c r="I9" s="1">
@@ -25680,24 +25721,24 @@
       </c>
       <c r="K9" s="1" cm="1">
         <f t="array" ref="K9:K14">(ABS(S11*C9:C14)+ABS(S12*D9:D14))/(100*SQRT(3))</f>
-        <v>1.0819544044613588E-2</v>
+        <v>6.4894170256913943E-3</v>
       </c>
       <c r="L9" s="1">
         <v>2.598076211353316E-2</v>
       </c>
       <c r="M9" s="1">
-        <v>0.11033359352006734</v>
+        <v>6.8399574991745704E-2</v>
       </c>
       <c r="N9" s="1">
-        <v>5.3045072784763354</v>
+        <v>3.2884458106806127</v>
       </c>
       <c r="P9">
-        <v>5.5166796760033672E-2</v>
+        <v>3.4199787495872852E-2</v>
       </c>
       <c r="R9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" s="156">
+        <v>61</v>
+      </c>
+      <c r="S9" s="120">
         <v>1</v>
       </c>
       <c r="T9" t="s">
@@ -25707,7 +25748,7 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="AB9" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC9" s="2">
         <v>5</v>
@@ -25715,37 +25756,37 @@
       <c r="AD9" s="4">
         <v>40</v>
       </c>
-      <c r="AE9" s="135">
+      <c r="AE9" s="99">
         <v>2.08</v>
       </c>
-      <c r="AF9" s="139">
+      <c r="AF9" s="103">
         <v>2.9761904761904763</v>
       </c>
-      <c r="AG9" s="139">
+      <c r="AG9" s="103">
         <v>2.0799970238095238</v>
       </c>
-      <c r="AH9" s="146">
+      <c r="AH9" s="110">
         <v>1.4308628532263811E-4</v>
       </c>
-      <c r="AI9" s="139">
-        <v>10.819544044613588</v>
-      </c>
-      <c r="AJ9" s="139">
+      <c r="AI9" s="103">
+        <v>6.4894170256913943</v>
+      </c>
+      <c r="AJ9" s="103">
         <v>25.98076211353316</v>
       </c>
-      <c r="AK9" s="143">
-        <v>110.33359352006734</v>
-      </c>
-      <c r="AL9" s="153">
-        <v>5.3045072784763354</v>
-      </c>
-    </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AK9" s="107">
+        <v>68.399574991745709</v>
+      </c>
+      <c r="AL9" s="117">
+        <v>3.2884458106806127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C10" s="34">
         <v>0.44600000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
@@ -25756,7 +25797,7 @@
       <c r="G10" s="1">
         <v>2.6760000000000002</v>
       </c>
-      <c r="H10" s="121">
+      <c r="H10" s="85">
         <v>4.2857142857142855E-6</v>
       </c>
       <c r="I10" s="1">
@@ -25766,24 +25807,24 @@
         <v>1.6015400409033324E-4</v>
       </c>
       <c r="K10" s="1">
-        <v>1.1079351665748919E-2</v>
+        <v>6.7492246468267257E-3</v>
       </c>
       <c r="L10" s="1">
         <v>2.8867513459481291E-2</v>
       </c>
       <c r="M10" s="1">
-        <v>0.13542282630975139</v>
+        <v>8.4985539274167632E-2</v>
       </c>
       <c r="N10" s="1">
-        <v>5.0606518383718297</v>
+        <v>3.1758473610579845</v>
       </c>
       <c r="P10">
-        <v>6.7711413154875694E-2</v>
+        <v>4.2492769637083816E-2</v>
       </c>
       <c r="R10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S10" s="156">
+        <v>62</v>
+      </c>
+      <c r="S10" s="120">
         <f>(W6/W4)*100</f>
         <v>0.05</v>
       </c>
@@ -25794,7 +25835,7 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="AB10" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC10" s="2">
         <v>6</v>
@@ -25802,37 +25843,37 @@
       <c r="AD10" s="4">
         <v>40</v>
       </c>
-      <c r="AE10" s="135">
+      <c r="AE10" s="99">
         <v>2.6760000000000002</v>
       </c>
-      <c r="AF10" s="139">
+      <c r="AF10" s="103">
         <v>4.2857142857142856</v>
       </c>
-      <c r="AG10" s="139">
+      <c r="AG10" s="103">
         <v>2.6759957142857145</v>
       </c>
-      <c r="AH10" s="146">
+      <c r="AH10" s="110">
         <v>1.6015400409033324E-4</v>
       </c>
-      <c r="AI10" s="139">
-        <v>11.079351665748918</v>
-      </c>
-      <c r="AJ10" s="139">
+      <c r="AI10" s="103">
+        <v>6.7492246468267254</v>
+      </c>
+      <c r="AJ10" s="103">
         <v>28.867513459481291</v>
       </c>
-      <c r="AK10" s="143">
-        <v>135.4228263097514</v>
-      </c>
-      <c r="AL10" s="153">
-        <v>5.0606518383718297</v>
-      </c>
-    </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AK10" s="107">
+        <v>84.985539274167635</v>
+      </c>
+      <c r="AL10" s="117">
+        <v>3.1758473610579845</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C11" s="34">
         <v>0.48599999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
@@ -25843,7 +25884,7 @@
       <c r="G11" s="1">
         <v>3.4020000000000001</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="85">
         <v>5.8333333333333331E-6</v>
       </c>
       <c r="I11" s="1">
@@ -25853,24 +25894,24 @@
         <v>1.7146805807280189E-4</v>
       </c>
       <c r="K11" s="1">
-        <v>1.1425761827262695E-2</v>
+        <v>7.0956348083405013E-3</v>
       </c>
       <c r="L11" s="1">
         <v>3.1754264805429415E-2</v>
       </c>
       <c r="M11" s="1">
-        <v>0.16291121876452996</v>
+        <v>0.10402338775171927</v>
       </c>
       <c r="N11" s="1">
-        <v>4.7886977691132611</v>
+        <v>3.0577179929042382</v>
       </c>
       <c r="P11">
-        <v>8.1455609382264982E-2</v>
+        <v>5.2011693875859633E-2</v>
       </c>
       <c r="R11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" s="156">
+        <v>63</v>
+      </c>
+      <c r="S11" s="120">
         <v>1.5</v>
       </c>
       <c r="T11" t="s">
@@ -25880,7 +25921,7 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="AB11" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC11" s="2">
         <v>7</v>
@@ -25888,37 +25929,37 @@
       <c r="AD11" s="4">
         <v>40</v>
       </c>
-      <c r="AE11" s="135">
+      <c r="AE11" s="99">
         <v>3.4020000000000001</v>
       </c>
-      <c r="AF11" s="139">
+      <c r="AF11" s="103">
         <v>5.833333333333333</v>
       </c>
-      <c r="AG11" s="139">
+      <c r="AG11" s="103">
         <v>3.4019941666666669</v>
       </c>
-      <c r="AH11" s="146">
+      <c r="AH11" s="110">
         <v>1.7146805807280189E-4</v>
       </c>
-      <c r="AI11" s="139">
-        <v>11.425761827262695</v>
-      </c>
-      <c r="AJ11" s="139">
+      <c r="AI11" s="103">
+        <v>7.0956348083405016</v>
+      </c>
+      <c r="AJ11" s="103">
         <v>31.754264805429415</v>
       </c>
-      <c r="AK11" s="143">
-        <v>162.91121876452996</v>
-      </c>
-      <c r="AL11" s="153">
-        <v>4.7886977691132611</v>
-      </c>
-    </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AK11" s="107">
+        <v>104.02338775171927</v>
+      </c>
+      <c r="AL11" s="117">
+        <v>3.0577179929042382</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C12" s="34">
         <v>0.51600000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
@@ -25929,7 +25970,7 @@
       <c r="G12" s="1">
         <v>4.1280000000000001</v>
       </c>
-      <c r="H12" s="121">
+      <c r="H12" s="85">
         <v>7.6190476190476188E-6</v>
       </c>
       <c r="I12" s="1">
@@ -25939,24 +25980,24 @@
         <v>1.845702926731131E-4</v>
       </c>
       <c r="K12" s="1">
-        <v>1.1685569448398025E-2</v>
+        <v>7.3554424294758327E-3</v>
       </c>
       <c r="L12" s="1">
         <v>3.4641016151377546E-2</v>
       </c>
       <c r="M12" s="1">
-        <v>0.19035616065134897</v>
+        <v>0.1229970239392896</v>
       </c>
       <c r="N12" s="1">
-        <v>4.6113496122158875</v>
+        <v>2.9795845677145509</v>
       </c>
       <c r="P12">
-        <v>9.5178080325674486E-2</v>
+        <v>6.1498511969644801E-2</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="156">
+        <v>64</v>
+      </c>
+      <c r="S12" s="120">
         <f>(W7/W4)*100</f>
         <v>0.125</v>
       </c>
@@ -25967,7 +26008,7 @@
         <v>0.51600000000000001</v>
       </c>
       <c r="AB12" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC12" s="2">
         <v>8</v>
@@ -25975,37 +26016,37 @@
       <c r="AD12" s="4">
         <v>40</v>
       </c>
-      <c r="AE12" s="135">
+      <c r="AE12" s="99">
         <v>4.1280000000000001</v>
       </c>
-      <c r="AF12" s="139">
+      <c r="AF12" s="103">
         <v>7.6190476190476186</v>
       </c>
-      <c r="AG12" s="139">
+      <c r="AG12" s="103">
         <v>4.1279923809523806</v>
       </c>
-      <c r="AH12" s="146">
+      <c r="AH12" s="110">
         <v>1.845702926731131E-4</v>
       </c>
-      <c r="AI12" s="139">
-        <v>11.685569448398025</v>
-      </c>
-      <c r="AJ12" s="139">
+      <c r="AI12" s="103">
+        <v>7.3554424294758327</v>
+      </c>
+      <c r="AJ12" s="103">
         <v>34.641016151377549</v>
       </c>
-      <c r="AK12" s="143">
-        <v>190.35616065134897</v>
-      </c>
-      <c r="AL12" s="153">
-        <v>4.6113496122158875</v>
-      </c>
-    </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AK12" s="107">
+        <v>122.9970239392896</v>
+      </c>
+      <c r="AL12" s="117">
+        <v>2.9795845677145509</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C13" s="34">
         <v>0.54500000000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>9</v>
@@ -26016,7 +26057,7 @@
       <c r="G13" s="1">
         <v>4.9050000000000002</v>
       </c>
-      <c r="H13" s="121">
+      <c r="H13" s="85">
         <v>9.6428571428571425E-6</v>
       </c>
       <c r="I13" s="1">
@@ -26026,25 +26067,25 @@
         <v>1.9659278491373179E-4</v>
       </c>
       <c r="K13" s="1">
-        <v>1.1936716815495513E-2</v>
+        <v>7.6065897965733207E-3</v>
       </c>
       <c r="L13" s="1">
         <v>3.7527767497325677E-2</v>
       </c>
       <c r="M13" s="1">
-        <v>0.21871999262870795</v>
+        <v>0.14289833860301548</v>
       </c>
       <c r="N13" s="1">
-        <v>4.4591319595602981</v>
+        <v>2.9133255765716402</v>
       </c>
       <c r="P13">
-        <v>0.10935999631435397</v>
+        <v>7.1449169301507742E-2</v>
       </c>
       <c r="AA13" s="3">
         <v>0.54500000000000004</v>
       </c>
       <c r="AB13" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC13" s="2">
         <v>9</v>
@@ -26052,37 +26093,37 @@
       <c r="AD13" s="4">
         <v>40</v>
       </c>
-      <c r="AE13" s="135">
+      <c r="AE13" s="99">
         <v>4.9050000000000002</v>
       </c>
-      <c r="AF13" s="139">
+      <c r="AF13" s="103">
         <v>9.6428571428571423</v>
       </c>
-      <c r="AG13" s="139">
+      <c r="AG13" s="103">
         <v>4.9049903571428572</v>
       </c>
-      <c r="AH13" s="146">
+      <c r="AH13" s="110">
         <v>1.9659278491373179E-4</v>
       </c>
-      <c r="AI13" s="139">
-        <v>11.936716815495513</v>
-      </c>
-      <c r="AJ13" s="139">
+      <c r="AI13" s="103">
+        <v>7.6065897965733207</v>
+      </c>
+      <c r="AJ13" s="103">
         <v>37.527767497325677</v>
       </c>
-      <c r="AK13" s="143">
-        <v>218.71999262870796</v>
-      </c>
-      <c r="AL13" s="153">
-        <v>4.4591319595602981</v>
-      </c>
-    </row>
-    <row r="14" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK13" s="107">
+        <v>142.89833860301547</v>
+      </c>
+      <c r="AL13" s="117">
+        <v>2.9133255765716402</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>0.57399999999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -26093,7 +26134,7 @@
       <c r="G14" s="1">
         <v>5.7399999999999993</v>
       </c>
-      <c r="H14" s="121">
+      <c r="H14" s="85">
         <v>1.1904761904761905E-5</v>
       </c>
       <c r="I14" s="1">
@@ -26103,58 +26144,58 @@
         <v>2.0740046333263514E-4</v>
       </c>
       <c r="K14" s="1">
-        <v>1.2187864182592999E-2</v>
+        <v>7.8577371636708061E-3</v>
       </c>
       <c r="L14" s="1">
         <v>4.0414518843273801E-2</v>
       </c>
       <c r="M14" s="1">
-        <v>0.2481333754433811</v>
+        <v>0.16386022094738525</v>
       </c>
       <c r="N14" s="1">
-        <v>4.3228900709608276</v>
+        <v>2.8547136026871556</v>
       </c>
       <c r="P14">
-        <v>0.12406668772169055</v>
-      </c>
-      <c r="AA14" s="124">
+        <v>8.1930110473692627E-2</v>
+      </c>
+      <c r="AA14" s="88">
         <v>0.57399999999999995</v>
       </c>
-      <c r="AB14" s="125">
+      <c r="AB14" s="89">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="89">
         <v>10</v>
       </c>
-      <c r="AC14" s="125">
-        <v>10</v>
-      </c>
-      <c r="AD14" s="126">
+      <c r="AD14" s="90">
         <v>40</v>
       </c>
-      <c r="AE14" s="136">
+      <c r="AE14" s="100">
         <v>5.7399999999999993</v>
       </c>
-      <c r="AF14" s="140">
+      <c r="AF14" s="104">
         <v>11.904761904761905</v>
       </c>
-      <c r="AG14" s="140">
+      <c r="AG14" s="104">
         <v>5.7399880952380942</v>
       </c>
-      <c r="AH14" s="147">
+      <c r="AH14" s="111">
         <v>2.0740046333263514E-4</v>
       </c>
-      <c r="AI14" s="140">
-        <v>12.187864182593</v>
-      </c>
-      <c r="AJ14" s="140">
+      <c r="AI14" s="104">
+        <v>7.857737163670806</v>
+      </c>
+      <c r="AJ14" s="104">
         <v>40.414518843273804</v>
       </c>
-      <c r="AK14" s="144">
-        <v>248.13337544338111</v>
-      </c>
-      <c r="AL14" s="154">
-        <v>4.3228900709608276</v>
-      </c>
-    </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AK14" s="108">
+        <v>163.86022094738524</v>
+      </c>
+      <c r="AL14" s="118">
+        <v>2.8547136026871556</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -26180,7 +26221,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -26206,7 +26247,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -26235,30 +26276,30 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="2:38" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:38" ht="18" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="120" t="s">
+      <c r="H18" s="84" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="120" t="s">
-        <v>76</v>
+      <c r="J18" s="84" t="s">
+        <v>74</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>19</v>
@@ -26269,50 +26310,50 @@
       <c r="M18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="120" t="s">
+      <c r="N18" s="84" t="s">
         <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA18" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB18" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC18" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AB18" s="123" t="s">
+      <c r="AD18" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="AC18" s="123" t="s">
+      <c r="AE18" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG18" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH18" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="AD18" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE18" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF18" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG18" s="123" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH18" s="128" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI18" s="123" t="s">
+      <c r="AI18" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="AJ18" s="123" t="s">
+      <c r="AJ18" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="AK18" s="123" t="s">
+      <c r="AK18" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="AL18" s="129" t="s">
+      <c r="AL18" s="93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
@@ -26352,44 +26393,44 @@
       <c r="P19" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="124" t="s">
+      <c r="AA19" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="125" t="s">
+      <c r="AB19" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AC19" s="125" t="s">
+      <c r="AC19" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AD19" s="126" t="s">
+      <c r="AD19" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AE19" s="131" t="s">
+      <c r="AE19" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="AF19" s="125" t="s">
+      <c r="AF19" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="AG19" s="125" t="s">
+      <c r="AG19" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="AH19" s="125" t="s">
+      <c r="AH19" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AI19" s="125" t="s">
+      <c r="AI19" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="AJ19" s="125" t="s">
+      <c r="AJ19" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AK19" s="125" t="s">
+      <c r="AK19" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="AL19" s="126" t="s">
+      <c r="AL19" s="90" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C20" s="38">
         <v>0.2</v>
       </c>
@@ -26406,15 +26447,15 @@
         <f t="array" ref="G20:G29">C20:C29*E20:E29</f>
         <v>0.23399999999999999</v>
       </c>
-      <c r="H20" s="121" cm="1">
+      <c r="H20" s="85" cm="1">
         <f t="array" ref="H20:H24">S5*POWER(C20:C24,2)</f>
         <v>6.0000000000000012E-2</v>
       </c>
-      <c r="I20" s="121" cm="1">
+      <c r="I20" s="85" cm="1">
         <f t="array" ref="I20:I29">_xlfn.ANCHORARRAY(G20)-H20:H29</f>
         <v>0.17399999999999999</v>
       </c>
-      <c r="J20" s="121" cm="1">
+      <c r="J20" s="85" cm="1">
         <f t="array" ref="J20:J29">(H20:H29/_xlfn.ANCHORARRAY(I20))*100</f>
         <v>34.482758620689665</v>
       </c>
@@ -26430,7 +26471,7 @@
         <f t="array" ref="M20:M29">P20:P29*2</f>
         <v>2.3201770047419513E-3</v>
       </c>
-      <c r="N20" s="121" cm="1">
+      <c r="N20" s="85" cm="1">
         <f t="array" ref="N20:N29">(_xlfn.ANCHORARRAY(M20)/_xlfn.ANCHORARRAY(I20))*100</f>
         <v>1.3334350601965239</v>
       </c>
@@ -26438,7 +26479,7 @@
         <f t="array" ref="P20:P24">SQRT(POWER(C20:C24*L20:L24,2)+POWER((E20:E24-2*S5*C20:C24)*_xlfn.ANCHORARRAY(K20),2))</f>
         <v>1.1600885023709756E-3</v>
       </c>
-      <c r="AA20" s="148" cm="1">
+      <c r="AA20" s="112" cm="1">
         <f t="array" ref="AA20:AA29">C20:C29</f>
         <v>0.2</v>
       </c>
@@ -26454,40 +26495,40 @@
         <f t="array" ref="AD20:AD29">F20:F29</f>
         <v>4</v>
       </c>
-      <c r="AE20" s="137" cm="1">
+      <c r="AE20" s="101" cm="1">
         <f t="array" ref="AE20:AE29">G20:G29</f>
         <v>0.23399999999999999</v>
       </c>
-      <c r="AF20" s="142" cm="1">
+      <c r="AF20" s="106" cm="1">
         <f t="array" ref="AF20:AF29">H20:H29*1000</f>
         <v>60.000000000000014</v>
       </c>
-      <c r="AG20" s="141" cm="1">
+      <c r="AG20" s="105" cm="1">
         <f t="array" ref="AG20:AG29">I20:I29</f>
         <v>0.17399999999999999</v>
       </c>
-      <c r="AH20" s="142" cm="1">
+      <c r="AH20" s="106" cm="1">
         <f t="array" ref="AH20:AH29">J20:J29</f>
         <v>34.482758620689665</v>
       </c>
-      <c r="AI20" s="141" cm="1">
+      <c r="AI20" s="105" cm="1">
         <f t="array" ref="AI20:AI29">L20:L29*1000</f>
         <v>4.5321996131385625</v>
       </c>
-      <c r="AJ20" s="141" cm="1">
+      <c r="AJ20" s="105" cm="1">
         <f t="array" ref="AJ20:AJ29">L20:L29*1000</f>
         <v>4.5321996131385625</v>
       </c>
-      <c r="AK20" s="142" cm="1">
+      <c r="AK20" s="106" cm="1">
         <f t="array" ref="AK20:AK29">M20:M29*1000</f>
         <v>2.3201770047419514</v>
       </c>
-      <c r="AL20" s="155" cm="1">
+      <c r="AL20" s="119" cm="1">
         <f t="array" ref="AL20:AL29">N20:N29</f>
         <v>1.3334350601965239</v>
       </c>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C21" s="34">
         <v>0.24</v>
       </c>
@@ -26527,7 +26568,7 @@
       <c r="P21">
         <v>1.8378033989884049E-3</v>
       </c>
-      <c r="AA21" s="149">
+      <c r="AA21" s="113">
         <v>0.24</v>
       </c>
       <c r="AB21" s="2">
@@ -26539,32 +26580,32 @@
       <c r="AD21" s="4">
         <v>4</v>
       </c>
-      <c r="AE21" s="135">
+      <c r="AE21" s="99">
         <v>0.372</v>
       </c>
-      <c r="AF21" s="143">
+      <c r="AF21" s="107">
         <v>86.4</v>
       </c>
-      <c r="AG21" s="139">
+      <c r="AG21" s="103">
         <v>0.28559999999999997</v>
       </c>
-      <c r="AH21" s="143">
+      <c r="AH21" s="107">
         <v>30.252100840336137</v>
       </c>
-      <c r="AI21" s="139">
+      <c r="AI21" s="103">
         <v>5.6291651245988525</v>
       </c>
-      <c r="AJ21" s="139">
+      <c r="AJ21" s="103">
         <v>5.6291651245988525</v>
       </c>
-      <c r="AK21" s="143">
+      <c r="AK21" s="107">
         <v>3.6756067979768097</v>
       </c>
-      <c r="AL21" s="153">
+      <c r="AL21" s="117">
         <v>1.2869771701599475</v>
       </c>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C22" s="34">
         <v>0.3</v>
       </c>
@@ -26604,7 +26645,7 @@
       <c r="P22">
         <v>4.7509607449441214E-3</v>
       </c>
-      <c r="AA22" s="149">
+      <c r="AA22" s="113">
         <v>0.3</v>
       </c>
       <c r="AB22" s="2">
@@ -26616,32 +26657,32 @@
       <c r="AD22" s="4">
         <v>4</v>
       </c>
-      <c r="AE22" s="135">
+      <c r="AE22" s="99">
         <v>0.88200000000000001</v>
       </c>
-      <c r="AF22" s="143">
+      <c r="AF22" s="107">
         <v>135</v>
       </c>
-      <c r="AG22" s="139">
+      <c r="AG22" s="103">
         <v>0.747</v>
       </c>
-      <c r="AH22" s="143">
+      <c r="AH22" s="107">
         <v>18.072289156626507</v>
       </c>
-      <c r="AI22" s="139">
+      <c r="AI22" s="103">
         <v>9.6417494954667511</v>
       </c>
-      <c r="AJ22" s="139">
+      <c r="AJ22" s="103">
         <v>9.6417494954667511</v>
       </c>
-      <c r="AK22" s="143">
+      <c r="AK22" s="107">
         <v>9.5019214898882431</v>
       </c>
-      <c r="AL22" s="153">
+      <c r="AL22" s="117">
         <v>1.2720109089542493</v>
       </c>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C23" s="34">
         <v>0.34</v>
       </c>
@@ -26681,7 +26722,7 @@
       <c r="P23">
         <v>9.8775528008375295E-3</v>
       </c>
-      <c r="AA23" s="149">
+      <c r="AA23" s="113">
         <v>0.34</v>
       </c>
       <c r="AB23" s="2">
@@ -26693,32 +26734,32 @@
       <c r="AD23" s="4">
         <v>40</v>
       </c>
-      <c r="AE23" s="135">
+      <c r="AE23" s="99">
         <v>1.3396000000000001</v>
       </c>
-      <c r="AF23" s="143">
+      <c r="AF23" s="107">
         <v>173.40000000000003</v>
       </c>
-      <c r="AG23" s="139">
+      <c r="AG23" s="103">
         <v>1.1662000000000001</v>
       </c>
-      <c r="AH23" s="143">
+      <c r="AH23" s="107">
         <v>14.868804664723031</v>
       </c>
-      <c r="AI23" s="139">
+      <c r="AI23" s="103">
         <v>22.920805686828142</v>
       </c>
-      <c r="AJ23" s="139">
+      <c r="AJ23" s="103">
         <v>22.920805686828142</v>
       </c>
-      <c r="AK23" s="143">
+      <c r="AK23" s="107">
         <v>19.755105601675059</v>
       </c>
-      <c r="AL23" s="153">
+      <c r="AL23" s="117">
         <v>1.693972354799782</v>
       </c>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C24" s="34">
         <v>0.4</v>
       </c>
@@ -26758,7 +26799,7 @@
       <c r="P24">
         <v>1.4584422008887887E-2</v>
       </c>
-      <c r="AA24" s="149">
+      <c r="AA24" s="113">
         <v>0.4</v>
       </c>
       <c r="AB24" s="2">
@@ -26770,32 +26811,32 @@
       <c r="AD24" s="4">
         <v>40</v>
       </c>
-      <c r="AE24" s="135">
+      <c r="AE24" s="99">
         <v>2.1120000000000001</v>
       </c>
-      <c r="AF24" s="143">
+      <c r="AF24" s="107">
         <v>240.00000000000006</v>
       </c>
-      <c r="AG24" s="139">
+      <c r="AG24" s="103">
         <v>1.8720000000000001</v>
       </c>
-      <c r="AH24" s="143">
+      <c r="AH24" s="107">
         <v>12.820512820512823</v>
       </c>
-      <c r="AI24" s="139">
+      <c r="AI24" s="103">
         <v>26.789052490398639</v>
       </c>
-      <c r="AJ24" s="139">
+      <c r="AJ24" s="103">
         <v>26.789052490398639</v>
       </c>
-      <c r="AK24" s="143">
+      <c r="AK24" s="107">
         <v>29.168844017775772</v>
       </c>
-      <c r="AL24" s="153">
+      <c r="AL24" s="117">
         <v>1.5581647445393041</v>
       </c>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C25" s="34">
         <v>0.4</v>
       </c>
@@ -26811,7 +26852,7 @@
       <c r="G25" s="1">
         <v>1.984</v>
       </c>
-      <c r="H25" s="121" cm="1">
+      <c r="H25" s="85" cm="1">
         <f t="array" ref="H25:H29">S6*POWER(C25:C29,2)</f>
         <v>9.6000000000000009E-3</v>
       </c>
@@ -26838,7 +26879,7 @@
         <f t="array" ref="P25:P29">SQRT(POWER(C25:C29*L25:L29,2)+POWER((E25:E29-2*S6*C25:C29)*_xlfn.ANCHORARRAY(K25),2))</f>
         <v>5.3475373721617564E-2</v>
       </c>
-      <c r="AA25" s="149">
+      <c r="AA25" s="113">
         <v>0.4</v>
       </c>
       <c r="AB25" s="2">
@@ -26850,32 +26891,32 @@
       <c r="AD25" s="4">
         <v>40</v>
       </c>
-      <c r="AE25" s="135">
+      <c r="AE25" s="99">
         <v>1.984</v>
       </c>
-      <c r="AF25" s="143">
+      <c r="AF25" s="107">
         <v>9.6000000000000014</v>
       </c>
-      <c r="AG25" s="139">
+      <c r="AG25" s="103">
         <v>1.9743999999999999</v>
       </c>
-      <c r="AH25" s="143">
+      <c r="AH25" s="107">
         <v>0.48622366288492713</v>
       </c>
-      <c r="AI25" s="139">
+      <c r="AI25" s="103">
         <v>25.865292059695236</v>
       </c>
-      <c r="AJ25" s="139">
+      <c r="AJ25" s="103">
         <v>25.865292059695236</v>
       </c>
-      <c r="AK25" s="143">
+      <c r="AK25" s="107">
         <v>106.95074744323513</v>
       </c>
-      <c r="AL25" s="153">
+      <c r="AL25" s="117">
         <v>5.4168733510552638</v>
       </c>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C26" s="34">
         <v>0.44</v>
       </c>
@@ -26915,7 +26956,7 @@
       <c r="P26">
         <v>6.7354181617551662E-2</v>
       </c>
-      <c r="AA26" s="149">
+      <c r="AA26" s="113">
         <v>0.44</v>
       </c>
       <c r="AB26" s="2">
@@ -26927,32 +26968,32 @@
       <c r="AD26" s="4">
         <v>40</v>
       </c>
-      <c r="AE26" s="135">
+      <c r="AE26" s="99">
         <v>2.6619999999999999</v>
       </c>
-      <c r="AF26" s="143">
+      <c r="AF26" s="107">
         <v>11.616</v>
       </c>
-      <c r="AG26" s="139">
+      <c r="AG26" s="103">
         <v>2.6503839999999999</v>
       </c>
-      <c r="AH26" s="143">
+      <c r="AH26" s="107">
         <v>0.43827611395178961</v>
       </c>
-      <c r="AI26" s="139">
+      <c r="AI26" s="103">
         <v>29.0118510267787</v>
       </c>
-      <c r="AJ26" s="139">
+      <c r="AJ26" s="103">
         <v>29.0118510267787</v>
       </c>
-      <c r="AK26" s="143">
+      <c r="AK26" s="107">
         <v>134.70836323510332</v>
       </c>
-      <c r="AL26" s="153">
+      <c r="AL26" s="117">
         <v>5.0825979644875359</v>
       </c>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C27" s="34">
         <v>0.5</v>
       </c>
@@ -26992,7 +27033,7 @@
       <c r="P27">
         <v>9.0401568247827815E-2</v>
       </c>
-      <c r="AA27" s="149">
+      <c r="AA27" s="113">
         <v>0.5</v>
       </c>
       <c r="AB27" s="2">
@@ -27004,32 +27045,32 @@
       <c r="AD27" s="4">
         <v>40</v>
       </c>
-      <c r="AE27" s="135">
+      <c r="AE27" s="99">
         <v>3.875</v>
       </c>
-      <c r="AF27" s="143">
+      <c r="AF27" s="107">
         <v>15</v>
       </c>
-      <c r="AG27" s="139">
+      <c r="AG27" s="103">
         <v>3.86</v>
       </c>
-      <c r="AH27" s="143">
+      <c r="AH27" s="107">
         <v>0.38860103626943004</v>
       </c>
-      <c r="AI27" s="139">
+      <c r="AI27" s="103">
         <v>33.919328314890514</v>
       </c>
-      <c r="AJ27" s="139">
+      <c r="AJ27" s="103">
         <v>33.919328314890514</v>
       </c>
-      <c r="AK27" s="143">
+      <c r="AK27" s="107">
         <v>180.80313649565562</v>
       </c>
-      <c r="AL27" s="153">
+      <c r="AL27" s="117">
         <v>4.6840190801983326</v>
       </c>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C28" s="34">
         <v>0.54</v>
       </c>
@@ -27069,7 +27110,7 @@
       <c r="P28">
         <v>0.10854424224547703</v>
       </c>
-      <c r="AA28" s="149">
+      <c r="AA28" s="113">
         <v>0.54</v>
       </c>
       <c r="AB28" s="2">
@@ -27081,32 +27122,32 @@
       <c r="AD28" s="4">
         <v>40</v>
       </c>
-      <c r="AE28" s="135">
+      <c r="AE28" s="99">
         <v>4.8761999999999999</v>
       </c>
-      <c r="AF28" s="143">
+      <c r="AF28" s="107">
         <v>17.496000000000002</v>
       </c>
-      <c r="AG28" s="139">
+      <c r="AG28" s="103">
         <v>4.8587039999999995</v>
       </c>
-      <c r="AH28" s="143">
+      <c r="AH28" s="107">
         <v>0.36009602560682852</v>
       </c>
-      <c r="AI28" s="139">
+      <c r="AI28" s="103">
         <v>37.61437003770412</v>
       </c>
-      <c r="AJ28" s="139">
+      <c r="AJ28" s="103">
         <v>37.61437003770412</v>
       </c>
-      <c r="AK28" s="143">
+      <c r="AK28" s="107">
         <v>217.08848449095404</v>
       </c>
-      <c r="AL28" s="153">
+      <c r="AL28" s="117">
         <v>4.4680327200618537</v>
       </c>
     </row>
-    <row r="29" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="40">
         <v>0.6</v>
       </c>
@@ -27146,40 +27187,40 @@
       <c r="P29">
         <v>0.13886626055789555</v>
       </c>
-      <c r="AA29" s="150">
+      <c r="AA29" s="114">
         <v>0.6</v>
       </c>
-      <c r="AB29" s="125">
+      <c r="AB29" s="89">
         <v>10</v>
       </c>
-      <c r="AC29" s="125">
+      <c r="AC29" s="89">
         <v>11.06</v>
       </c>
-      <c r="AD29" s="126">
+      <c r="AD29" s="90">
         <v>40</v>
       </c>
-      <c r="AE29" s="136">
+      <c r="AE29" s="100">
         <v>6.6360000000000001</v>
       </c>
-      <c r="AF29" s="144">
+      <c r="AF29" s="108">
         <v>21.599999999999998</v>
       </c>
-      <c r="AG29" s="140">
+      <c r="AG29" s="104">
         <v>6.6143999999999998</v>
       </c>
-      <c r="AH29" s="144">
+      <c r="AH29" s="108">
         <v>0.32656023222060954</v>
       </c>
-      <c r="AI29" s="140">
+      <c r="AI29" s="104">
         <v>43.474475269978825</v>
       </c>
-      <c r="AJ29" s="140">
+      <c r="AJ29" s="104">
         <v>43.474475269978825</v>
       </c>
-      <c r="AK29" s="144">
+      <c r="AK29" s="108">
         <v>277.73252111579109</v>
       </c>
-      <c r="AL29" s="154">
+      <c r="AL29" s="118">
         <v>4.1989072495735229</v>
       </c>
     </row>
@@ -27197,13 +27238,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.390625" customWidth="1"/>
+    <col min="8" max="8" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -27224,24 +27265,24 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="142" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="135"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -27249,20 +27290,20 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="106"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="143"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
       <c r="N3" s="1"/>
       <c r="O3" s="5" t="s">
         <v>5</v>
@@ -27271,20 +27312,20 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="104"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="143"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="141"/>
       <c r="N4" s="1"/>
       <c r="O4" s="5" t="s">
         <v>12</v>
@@ -27294,38 +27335,38 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
-      <c r="B5" s="113" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="143"/>
+      <c r="B5" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115" t="s">
+      <c r="C5" s="151"/>
+      <c r="D5" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="117" t="s">
+      <c r="E5" s="153"/>
+      <c r="F5" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="107" t="s">
+      <c r="K5" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="108" t="s">
+      <c r="M5" s="145" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="1"/>
@@ -27337,8 +27378,8 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="106"/>
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="143"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
@@ -27351,14 +27392,14 @@
       <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="109"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="146"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -27370,8 +27411,8 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="143"/>
       <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
@@ -27415,8 +27456,8 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="110" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="147" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="56">
@@ -27475,8 +27516,8 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="148"/>
       <c r="B9" s="57">
         <v>0.28599999999999998</v>
       </c>
@@ -27532,8 +27573,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="148"/>
       <c r="B10" s="57">
         <v>0.33600000000000002</v>
       </c>
@@ -27589,8 +27630,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="148"/>
       <c r="B11" s="57">
         <v>0.376</v>
       </c>
@@ -27646,8 +27687,8 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="148"/>
       <c r="B12" s="57">
         <v>0.41599999999999998</v>
       </c>
@@ -27703,8 +27744,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="148"/>
       <c r="B13" s="57">
         <v>0.44600000000000001</v>
       </c>
@@ -27760,8 +27801,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="148"/>
       <c r="B14" s="57">
         <v>0.48599999999999999</v>
       </c>
@@ -27813,8 +27854,8 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="148"/>
       <c r="B15" s="57">
         <v>0.51600000000000001</v>
       </c>
@@ -27866,8 +27907,8 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="148"/>
       <c r="B16" s="57">
         <v>0.54500000000000004</v>
       </c>
@@ -27919,8 +27960,8 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="148"/>
       <c r="B17" s="58">
         <v>0.57399999999999995</v>
       </c>
@@ -27972,8 +28013,8 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="110" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="147" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="81">
@@ -28026,13 +28067,13 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="93" t="s">
+      <c r="R18" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="S18" s="93"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
+      <c r="S18" s="121"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="148"/>
       <c r="B19" s="82">
         <v>0.24</v>
       </c>
@@ -28092,8 +28133,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="111"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="148"/>
       <c r="B20" s="82">
         <v>0.3</v>
       </c>
@@ -28153,8 +28194,8 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="148"/>
       <c r="B21" s="82">
         <v>0.34</v>
       </c>
@@ -28206,8 +28247,8 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="111"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="148"/>
       <c r="B22" s="82">
         <v>0.4</v>
       </c>
@@ -28256,13 +28297,13 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="93" t="s">
+      <c r="R22" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="S22" s="93"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
+      <c r="S22" s="121"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="148"/>
       <c r="B23" s="80">
         <v>0.4</v>
       </c>
@@ -28318,8 +28359,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="148"/>
       <c r="B24" s="80">
         <v>0.44</v>
       </c>
@@ -28375,8 +28416,8 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="148"/>
       <c r="B25" s="80">
         <v>0.5</v>
       </c>
@@ -28428,8 +28469,8 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="148"/>
       <c r="B26" s="80">
         <v>0.54</v>
       </c>
@@ -28481,8 +28522,8 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="112"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="149"/>
       <c r="B27" s="83">
         <v>0.6</v>
       </c>
@@ -28534,7 +28575,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -28555,7 +28596,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -28576,7 +28617,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
